--- a/data/raw/dias_pagados_cesantia.xlsx
+++ b/data/raw/dias_pagados_cesantia.xlsx
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,8 +103,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,184 +238,181 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">B2</f>
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">B3</f>
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">B4</f>
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <f aca="false">12*2</f>
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>19.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">B5</f>
         <v>24</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <f aca="false">12*3</f>
         <v>36</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">B6</f>
         <v>36</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <f aca="false">12*4</f>
         <v>48</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>20.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">B7</f>
         <v>48</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <f aca="false">12*5</f>
         <v>60</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false">B8</f>
         <v>60</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <f aca="false">12*6</f>
         <v>72</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>21.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">B9</f>
         <v>72</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <f aca="false">12*10</f>
         <v>120</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">B10</f>
         <v>120</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <f aca="false">12*11</f>
         <v>132</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>21.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">B11</f>
         <v>132</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <f aca="false">12*12</f>
         <v>144</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">B12</f>
         <v>144</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <f aca="false">12*13</f>
         <v>156</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>20.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false">B13</f>
         <v>156</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">1E+099</f>
-        <v>1E+099</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="n">
         <v>20</v>
       </c>
     </row>
